--- a/Clusterização - resultados.xlsx
+++ b/Clusterização - resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professor\CEFET\2020-2\_Técnicas de Aprendizado de Máquina\aula 14\Postar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackrafer\Desktop\Pokemon_Clustering_Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD0041-DDFF-44AD-858F-78C736ACB906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8B32D-76FF-46DB-9F34-4E16ABFBB0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{754EA700-8FBA-4FF8-8CAD-A83E737A4940}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{754EA700-8FBA-4FF8-8CAD-A83E737A4940}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t xml:space="preserve">Quantidade de Registros </t>
   </si>
@@ -50,24 +50,12 @@
   <si>
     <t>DBSCAN</t>
   </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +69,51 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -154,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -168,9 +197,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,193 +232,136 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118276</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA868320-BA42-4EBF-9427-9787E9FE1E08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DEA2D2-B20D-3AC7-A34F-6786C168AACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3295650"/>
-          <a:ext cx="3581400" cy="2466975"/>
+          <a:off x="0" y="1365250"/>
+          <a:ext cx="3708400" cy="2112176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Gráfico 1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A550E0-B945-48DB-8E05-84F5535A38F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595AF65B-DD21-EF37-62AC-A6D186C1DAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="3305175"/>
-          <a:ext cx="3581400" cy="2466975"/>
+          <a:off x="4302125" y="1304925"/>
+          <a:ext cx="3679825" cy="2095900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Gráfico 2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40308</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B685A74-49D5-4C64-96E5-74BA2C38ADF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF08AA1-CC43-6F2C-717E-CC60DF139C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="3305175"/>
-          <a:ext cx="3581400" cy="2466975"/>
+          <a:off x="8534400" y="1301750"/>
+          <a:ext cx="3683000" cy="2097708"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Gráfico 3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -679,154 +664,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B70CCD6-D555-4E46-A895-C2DA57BB0B1D}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>527</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>554</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>915</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>399</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>374</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>89</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="K6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>112</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>110</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L3:N3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
@@ -837,6 +823,11 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -845,6 +836,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="558ff6ea-e402-46b9-9d85-71d4e65262a0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e76643e6-ac93-4d30-94d4-078355e67670">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FD3CAA4E66438E4EBFBF209A49AF80D7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="88731c56c97c72f904fdcb604469bb9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e76643e6-ac93-4d30-94d4-078355e67670" xmlns:ns3="558ff6ea-e402-46b9-9d85-71d4e65262a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="489b5ea74f71d0bae8170fcf5248e486" ns2:_="" ns3:_="">
     <xsd:import namespace="e76643e6-ac93-4d30-94d4-078355e67670"/>
@@ -1021,34 +1032,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE3A546-7215-4760-961B-B8F73BD8F936}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="558ff6ea-e402-46b9-9d85-71d4e65262a0"/>
+    <ds:schemaRef ds:uri="e76643e6-ac93-4d30-94d4-078355e67670"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="558ff6ea-e402-46b9-9d85-71d4e65262a0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e76643e6-ac93-4d30-94d4-078355e67670">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{755F4C46-14AE-48E2-8E48-05E734C9EA1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2211F23B-42BF-4C86-8C79-8EB7E5ACC44A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{755F4C46-14AE-48E2-8E48-05E734C9EA1C}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE3A546-7215-4760-961B-B8F73BD8F936}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2211F23B-42BF-4C86-8C79-8EB7E5ACC44A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e76643e6-ac93-4d30-94d4-078355e67670"/>
+    <ds:schemaRef ds:uri="558ff6ea-e402-46b9-9d85-71d4e65262a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>